--- a/hw3/os proj3 record.xlsx
+++ b/hw3/os proj3 record.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openo\git\OS\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="P" sheetId="2" r:id="rId1"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default 設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16,128,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +97,10 @@
   </si>
   <si>
     <t>16,128,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,16 +236,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>532952</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1699</xdr:rowOff>
+      <xdr:colOff>525332</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -254,16 +254,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="0"/>
-          <a:ext cx="3580952" cy="1647619"/>
+        <a:srcRect t="4625"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="30480"/>
+          <a:ext cx="3580952" cy="1571419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1140,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1176,97 +1175,97 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>22.001999999999999</v>
+        <v>34.25</v>
       </c>
       <c r="D2">
-        <v>21.5</v>
+        <v>30.122</v>
       </c>
       <c r="E2">
-        <v>21.494</v>
+        <v>29.47</v>
       </c>
       <c r="F2">
-        <v>21.704999999999998</v>
+        <v>29.863</v>
       </c>
       <c r="G2">
-        <v>21.050999999999998</v>
+        <v>29.536999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>34.25</v>
+        <v>30.334</v>
       </c>
       <c r="D3">
-        <v>30.122</v>
+        <v>26.079000000000001</v>
       </c>
       <c r="E3">
-        <v>29.47</v>
+        <v>25.611000000000001</v>
       </c>
       <c r="F3">
-        <v>29.863</v>
+        <v>25.974</v>
       </c>
       <c r="G3">
-        <v>29.536999999999999</v>
+        <v>29.69</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>511</v>
+        <v>255</v>
       </c>
       <c r="B4" s="1">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C4">
-        <v>4.9790000000000001</v>
+        <v>22.001999999999999</v>
       </c>
       <c r="D4">
-        <v>5.1959999999999997</v>
+        <v>21.5</v>
       </c>
       <c r="E4">
-        <v>4.6050000000000004</v>
+        <v>21.494</v>
       </c>
       <c r="F4">
-        <v>5.0350000000000001</v>
+        <v>21.704999999999998</v>
       </c>
       <c r="G4">
-        <v>4.6580000000000004</v>
+        <v>21.050999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>511</v>
       </c>
       <c r="B5" s="1">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="C5">
-        <v>30.334</v>
+        <v>4.9790000000000001</v>
       </c>
       <c r="D5">
-        <v>26.079000000000001</v>
+        <v>5.1959999999999997</v>
       </c>
       <c r="E5">
-        <v>25.611000000000001</v>
+        <v>4.6050000000000004</v>
       </c>
       <c r="F5">
-        <v>25.974</v>
+        <v>5.0350000000000001</v>
       </c>
       <c r="G5">
-        <v>29.69</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>4.6580000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1280,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="J39" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1313,7 +1312,7 @@
         <v>9</v>
       </c>
       <c r="O17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1324,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1335,17 +1334,17 @@
         <v>11</v>
       </c>
       <c r="O33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
